--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48A4184-FCAE-44E2-8AF9-FA0BE3883A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0983E-AFFB-4A3D-B968-E79C2D71C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="1160" windowWidth="22680" windowHeight="15370" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
+    <workbookView xWindow="11560" yWindow="3570" windowWidth="24050" windowHeight="15370" activeTab="1" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="quandles" sheetId="4" r:id="rId2"/>
+    <sheet name="semigroups" sheetId="3" r:id="rId3"/>
+    <sheet name="quasigroups" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Semigroups</t>
   </si>
@@ -87,6 +90,39 @@
   </si>
   <si>
     <t>Experiments done on musca</t>
+  </si>
+  <si>
+    <t>Quandles</t>
+  </si>
+  <si>
+    <t>#models/sec</t>
+  </si>
+  <si>
+    <t>nauty outputs</t>
+  </si>
+  <si>
+    <t>A181769</t>
+  </si>
+  <si>
+    <t>nauty Wall clock time (s)</t>
+  </si>
+  <si>
+    <t>nauty cpu time (s)</t>
+  </si>
+  <si>
+    <t>loops</t>
+  </si>
+  <si>
+    <t>mlex cpu time (s)</t>
+  </si>
+  <si>
+    <t>#nauty outputs</t>
+  </si>
+  <si>
+    <t>(latin square formulation)</t>
+  </si>
+  <si>
+    <t>3 operations</t>
   </si>
 </sst>
 </file>
@@ -441,36 +477,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070350DB-BF20-4F0F-BCA3-734AB117EDB9}">
-  <dimension ref="A3:M33"/>
+  <dimension ref="A3:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,219 +514,916 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10">
         <v>15973</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>28634</v>
       </c>
       <c r="E10">
+        <v>5628898</v>
+      </c>
+      <c r="F10">
         <f>5+4/60</f>
         <v>5.0666666666666664</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>17.95</v>
       </c>
       <c r="J10">
+        <f>E10/304</f>
+        <v>18516.111842105263</v>
+      </c>
+      <c r="K10">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16">
         <v>11</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>25538</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>18</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>230984</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>32</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f>18*60+38</f>
         <v>1118</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>12</v>
       </c>
-      <c r="B21">
+      <c r="C22">
         <v>2684</v>
       </c>
-      <c r="D21">
+      <c r="D22">
+        <v>2684</v>
+      </c>
+      <c r="E22">
         <v>193368</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>369</v>
       </c>
-      <c r="F21">
+      <c r="G22">
         <f>9*60+45</f>
         <v>585</v>
       </c>
-      <c r="I21">
+      <c r="J22">
         <v>10605</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>7</v>
       </c>
-      <c r="B28">
+      <c r="C29">
         <v>12147</v>
       </c>
-      <c r="C28">
+      <c r="D29">
         <v>23746</v>
       </c>
-      <c r="D28">
+      <c r="E29">
         <v>223808</v>
       </c>
-      <c r="E28">
+      <c r="F29">
         <v>145</v>
       </c>
-      <c r="F28">
+      <c r="G29">
         <v>71</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M30">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31">
         <f>12147*2-23746</f>
         <v>548</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>6</v>
       </c>
-      <c r="B32">
+      <c r="B35">
         <v>208</v>
       </c>
-      <c r="D32">
+      <c r="C35">
+        <v>208</v>
+      </c>
+      <c r="E35">
         <v>41069</v>
       </c>
-      <c r="E32">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="H35">
         <v>1800</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>7</v>
       </c>
-      <c r="B33">
+      <c r="B36">
         <v>911</v>
       </c>
-      <c r="D33">
+      <c r="C36">
+        <v>911</v>
+      </c>
+      <c r="E36">
         <v>968795</v>
       </c>
-      <c r="E33">
+      <c r="F36">
         <v>93</v>
+      </c>
+      <c r="J36">
+        <f>E36/93</f>
+        <v>10417.150537634408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>190</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>73</v>
+      </c>
+      <c r="E40">
+        <v>1833</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f>E41/13</f>
+        <v>1700.3076923076924</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>293</v>
+      </c>
+      <c r="D41">
+        <v>298</v>
+      </c>
+      <c r="E41">
+        <v>22104</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="J41">
+        <f>E42/F42</f>
+        <v>1187.6534653465346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1572</v>
+      </c>
+      <c r="D42">
+        <v>1581</v>
+      </c>
+      <c r="E42">
+        <v>359859</v>
+      </c>
+      <c r="F42">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C48C7-82EF-4B8E-B79C-E1931327BF0A}">
+  <dimension ref="A4:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>190</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>72</v>
+      </c>
+      <c r="D7">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>1833</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>293</v>
+      </c>
+      <c r="D8">
+        <v>298</v>
+      </c>
+      <c r="E8">
+        <v>22104</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1572</v>
+      </c>
+      <c r="D9">
+        <v>1581</v>
+      </c>
+      <c r="E9">
+        <v>359859</v>
+      </c>
+      <c r="G9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>11079</v>
+      </c>
+      <c r="E10">
+        <v>7691008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54125112-47BB-49F9-B19F-D459CC1D822A}">
+  <dimension ref="A4:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1160</v>
+      </c>
+      <c r="C5">
+        <v>1160</v>
+      </c>
+      <c r="D5">
+        <v>1915</v>
+      </c>
+      <c r="E5">
+        <v>90536</v>
+      </c>
+      <c r="F5">
+        <v>4.11374</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>10.243</v>
+      </c>
+      <c r="K5">
+        <f>E5/F5</f>
+        <v>22008.196920563769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>15973</v>
+      </c>
+      <c r="C6">
+        <v>15973</v>
+      </c>
+      <c r="D6">
+        <v>28634</v>
+      </c>
+      <c r="E6">
+        <v>5628898</v>
+      </c>
+      <c r="F6">
+        <v>329.16300000000001</v>
+      </c>
+      <c r="G6">
+        <v>339</v>
+      </c>
+      <c r="H6">
+        <v>1011.241</v>
+      </c>
+      <c r="K6">
+        <f>E6/F6</f>
+        <v>17100.640108396143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54D5EE3-8D97-4BF8-8A0C-B511E7D89C8E}">
+  <dimension ref="A4:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1.052E-3</v>
+      </c>
+      <c r="K6">
+        <f>E6/F6</f>
+        <v>7604.5627376425855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>152</v>
+      </c>
+      <c r="F7">
+        <v>9.1339000000000004E-2</v>
+      </c>
+      <c r="K7">
+        <f>E7/F7</f>
+        <v>1664.1303276803994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>746</v>
+      </c>
+      <c r="C8">
+        <v>746</v>
+      </c>
+      <c r="E8">
+        <v>10944</v>
+      </c>
+      <c r="F8">
+        <v>13.968</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <f>E8/F8</f>
+        <v>783.5051546391752</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>746</v>
+      </c>
+      <c r="C13">
+        <v>283</v>
+      </c>
+      <c r="D13">
+        <v>1411</v>
+      </c>
+      <c r="E13">
+        <v>10944</v>
+      </c>
+      <c r="F13">
+        <v>2.423</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="K13">
+        <f>E13/F13</f>
+        <v>4516.7148163433758</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>567207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>71</v>
+      </c>
+      <c r="E19">
+        <v>624</v>
+      </c>
+      <c r="F19">
+        <v>1.52698</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <v>624</v>
+      </c>
+      <c r="F24">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="K24">
+        <f>E24/F24</f>
+        <v>1124.3243243243242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>12151</v>
+      </c>
+      <c r="C25">
+        <v>12147</v>
+      </c>
+      <c r="D25">
+        <v>23746</v>
+      </c>
+      <c r="E25">
+        <v>233808</v>
+      </c>
+      <c r="F25">
+        <v>201.76</v>
+      </c>
+      <c r="G25">
+        <v>202</v>
+      </c>
+      <c r="H25">
+        <v>66.697999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>53146457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0983E-AFFB-4A3D-B968-E79C2D71C3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C78B64-B699-4D64-B09D-636FA67807AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11560" yWindow="3570" windowWidth="24050" windowHeight="15370" activeTab="1" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
+    <workbookView xWindow="11620" yWindow="1870" windowWidth="24050" windowHeight="15370" activeTab="4" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="quandles" sheetId="4" r:id="rId2"/>
-    <sheet name="semigroups" sheetId="3" r:id="rId3"/>
-    <sheet name="quasigroups" sheetId="2" r:id="rId4"/>
+    <sheet name="semigroups" sheetId="3" r:id="rId2"/>
+    <sheet name="quasigroups" sheetId="2" r:id="rId3"/>
+    <sheet name="iploops" sheetId="5" r:id="rId4"/>
+    <sheet name="quandles" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
   <si>
     <t>Semigroups</t>
   </si>
@@ -116,19 +117,31 @@
     <t>mlex cpu time (s)</t>
   </si>
   <si>
-    <t>#nauty outputs</t>
-  </si>
-  <si>
     <t>(latin square formulation)</t>
   </si>
   <si>
     <t>3 operations</t>
+  </si>
+  <si>
+    <t>mlex wall clock time (s)</t>
+  </si>
+  <si>
+    <t>per model (milliseconds)</t>
+  </si>
+  <si>
+    <t>time per model m(s)</t>
+  </si>
+  <si>
+    <t>time per model (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,11 +171,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,36 +498,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070350DB-BF20-4F0F-BCA3-734AB117EDB9}">
-  <dimension ref="A3:N42"/>
+  <dimension ref="A3:O42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:F42"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -523,31 +544,34 @@
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6</v>
       </c>
@@ -560,30 +584,30 @@
       <c r="E10">
         <v>5628898</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f>5+4/60</f>
         <v>5.0666666666666664</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>17.95</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>E10/304</f>
         <v>18516.111842105263</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
@@ -596,14 +620,14 @@
       <c r="E16">
         <v>25538</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
@@ -616,25 +640,25 @@
       <c r="E17">
         <v>230984</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>32</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f>18*60+38</f>
         <v>1118</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>11</v>
       </c>
@@ -645,7 +669,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>12</v>
       </c>
@@ -658,33 +682,33 @@
       <c r="E22">
         <v>193368</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>369</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f>9*60+45</f>
         <v>585</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>10605</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>7</v>
       </c>
@@ -697,34 +721,34 @@
       <c r="E29">
         <v>223808</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>145</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>71</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="J31" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K31" t="s">
         <v>18</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <f>12147*2-23746</f>
         <v>548</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -738,12 +762,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6</v>
       </c>
@@ -756,14 +780,14 @@
       <c r="E35">
         <v>41069</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>1800</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>7</v>
       </c>
@@ -777,14 +801,17 @@
         <v>968795</v>
       </c>
       <c r="F36">
-        <v>93</v>
-      </c>
-      <c r="J36">
+        <v>73.400700000000001</v>
+      </c>
+      <c r="G36">
+        <v>75</v>
+      </c>
+      <c r="K36">
         <f>E36/93</f>
         <v>10417.150537634408</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -792,7 +819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>5</v>
       </c>
@@ -805,11 +832,11 @@
       <c r="E39">
         <v>190</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6</v>
       </c>
@@ -822,15 +849,15 @@
       <c r="E40">
         <v>1833</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <f>E41/13</f>
         <v>1700.3076923076924</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>7</v>
       </c>
@@ -843,15 +870,15 @@
       <c r="E41">
         <v>22104</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>13</v>
       </c>
-      <c r="J41">
-        <f>E42/F42</f>
+      <c r="K41">
+        <f>E42/G42</f>
         <v>1187.6534653465346</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>8</v>
       </c>
@@ -864,7 +891,7 @@
       <c r="E42">
         <v>359859</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>303</v>
       </c>
     </row>
@@ -875,149 +902,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C48C7-82EF-4B8E-B79C-E1931327BF0A}">
-  <dimension ref="A4:K14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54125112-47BB-49F9-B19F-D459CC1D822A}">
+  <dimension ref="A4:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1915</v>
+      </c>
+      <c r="C5">
+        <v>90536</v>
+      </c>
+      <c r="D5">
+        <v>3.2385700000000002</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F5">
+        <v>10.243</v>
+      </c>
+      <c r="I5">
+        <f>C5/D5</f>
+        <v>27955.548282112166</v>
+      </c>
+      <c r="J5">
+        <f>1000/I5</f>
+        <v>3.5771074489705755E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>28634</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5628898</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>265.387</v>
       </c>
       <c r="E6">
-        <v>190</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="F6">
+        <v>1011.241</v>
+      </c>
+      <c r="I6">
+        <f>C6/D6</f>
+        <v>21210.149705901193</v>
+      </c>
+      <c r="J6">
+        <f>1000/I6</f>
+        <v>4.7147239122115908E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>72</v>
-      </c>
-      <c r="D7">
-        <v>73</v>
-      </c>
-      <c r="E7">
-        <v>1833</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
         <v>7</v>
-      </c>
-      <c r="C8">
-        <v>293</v>
-      </c>
-      <c r="D8">
-        <v>298</v>
-      </c>
-      <c r="E8">
-        <v>22104</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>1572</v>
-      </c>
-      <c r="D9">
-        <v>1581</v>
-      </c>
-      <c r="E9">
-        <v>359859</v>
-      </c>
-      <c r="G9">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>11079</v>
-      </c>
-      <c r="E10">
-        <v>7691008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1026,107 +1011,335 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54125112-47BB-49F9-B19F-D459CC1D822A}">
-  <dimension ref="A4:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54D5EE3-8D97-4BF8-8A0C-B511E7D89C8E}">
+  <dimension ref="A4:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B6" s="3">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <v>152</v>
+      </c>
+      <c r="D6">
+        <v>2.0753000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>C6/D6</f>
+        <v>7324.242278224835</v>
+      </c>
+      <c r="J6">
+        <f>1/I6*1000</f>
+        <v>0.1365328947368421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1411</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10944</v>
+      </c>
+      <c r="D7">
+        <v>1.60467</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f>C7/D7</f>
+        <v>6820.0938510721826</v>
+      </c>
+      <c r="J7">
+        <f>1/I7*1000</f>
+        <v>0.14662554824561405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1130531</v>
+      </c>
+      <c r="C8" s="3">
+        <v>11543040</v>
+      </c>
+      <c r="D8">
+        <v>2619.06</v>
+      </c>
+      <c r="E8">
+        <v>2681</v>
+      </c>
+      <c r="I8" s="3">
+        <f>C8/D8</f>
+        <v>4407.3217108428216</v>
+      </c>
+      <c r="J8">
+        <f>1/I8*1000</f>
+        <v>0.22689516799733866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>8.7259999999999994E-3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f>C11/D11</f>
+        <v>17419.206967682789</v>
+      </c>
+      <c r="J11">
+        <f>1/I11*1000</f>
+        <v>5.7407894736842102E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1160</v>
-      </c>
-      <c r="C5">
-        <v>1160</v>
-      </c>
-      <c r="D5">
-        <v>1915</v>
-      </c>
-      <c r="E5">
-        <v>90536</v>
-      </c>
-      <c r="F5">
-        <v>4.11374</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>10.243</v>
-      </c>
-      <c r="K5">
-        <f>E5/F5</f>
-        <v>22008.196920563769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="B12" s="3">
+        <v>1411</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10944</v>
+      </c>
+      <c r="D12">
+        <v>0.66026799999999997</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="I12" s="3">
+        <f>C12/D12</f>
+        <v>16575.087691664598</v>
+      </c>
+      <c r="J12">
+        <f>1/I12*1000</f>
+        <v>6.0331505847953215E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>15973</v>
-      </c>
-      <c r="C6">
-        <v>15973</v>
-      </c>
-      <c r="D6">
-        <v>28634</v>
-      </c>
-      <c r="E6">
-        <v>5628898</v>
-      </c>
-      <c r="F6">
-        <v>329.16300000000001</v>
-      </c>
-      <c r="G6">
-        <v>339</v>
-      </c>
-      <c r="H6">
-        <v>1011.241</v>
-      </c>
-      <c r="K6">
-        <f>E6/F6</f>
-        <v>17100.640108396143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="B13" s="3">
+        <v>1130531</v>
+      </c>
+      <c r="C13" s="3">
+        <v>11543040</v>
+      </c>
+      <c r="D13">
+        <v>1028.52</v>
+      </c>
+      <c r="E13">
+        <v>1051</v>
+      </c>
+      <c r="F13">
+        <v>2440.3000000000002</v>
+      </c>
+      <c r="I13" s="3">
+        <f>C13/D13</f>
+        <v>11222.961148057402</v>
+      </c>
+      <c r="J13">
+        <f>1/I13*1000</f>
+        <v>8.9103043912175661E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3">
+        <v>109</v>
+      </c>
+      <c r="C18" s="3">
+        <v>624</v>
+      </c>
+      <c r="D18">
+        <v>0.16925999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" s="3">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3">
+        <v>624</v>
+      </c>
+      <c r="D23">
+        <v>7.5453000000000006E-2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="I23" s="3">
+        <f>C23/D23</f>
+        <v>8270.0489046161183</v>
+      </c>
+      <c r="J23">
+        <f>1/I23*1000</f>
+        <v>0.12091826923076925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3">
+        <v>23746</v>
+      </c>
+      <c r="C24" s="3">
+        <v>233808</v>
+      </c>
+      <c r="D24">
+        <v>32.771900000000002</v>
+      </c>
+      <c r="E24">
+        <v>33</v>
+      </c>
+      <c r="F24">
+        <v>63.284999999999997</v>
+      </c>
+      <c r="I24" s="3">
+        <f>C24/D24</f>
+        <v>7134.4047797045632</v>
+      </c>
+      <c r="J24">
+        <f>1/I24*1000</f>
+        <v>0.14016586258810651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3">
+        <v>53146457</v>
       </c>
     </row>
   </sheetData>
@@ -1135,292 +1348,312 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D54D5EE3-8D97-4BF8-8A0C-B511E7D89C8E}">
-  <dimension ref="A4:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DE24D8-7DED-461A-A433-ADD189AA931B}">
+  <dimension ref="A4:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" style="3"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="10.90625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1178</v>
+      </c>
+      <c r="D5">
+        <v>0.76863800000000004</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3.7480000000000002</v>
+      </c>
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+      <c r="I5" s="3">
+        <f>C5/D5</f>
+        <v>1532.5810069239355</v>
+      </c>
+      <c r="J5">
+        <f>1000/I5</f>
+        <v>0.65249405772495761</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2684</v>
+      </c>
+      <c r="C6" s="3">
+        <v>193368</v>
+      </c>
+      <c r="D6">
+        <v>210.40899999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>212</v>
+      </c>
+      <c r="F6">
+        <v>580.41999999999996</v>
+      </c>
+      <c r="G6" s="3">
+        <v>592</v>
+      </c>
+      <c r="I6" s="3">
+        <f>C6/D6</f>
+        <v>919.01011838847205</v>
+      </c>
+      <c r="J6">
+        <f>1000/I6</f>
+        <v>1.0881273013114889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C48C7-82EF-4B8E-B79C-E1931327BF0A}">
+  <dimension ref="A4:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="10.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="11.7265625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>190</v>
+      </c>
+      <c r="D6">
+        <v>2.5928E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>C6/D6</f>
+        <v>7327.9851897562485</v>
+      </c>
+      <c r="J6" s="5">
+        <f>1000/I6</f>
+        <v>0.13646315789473684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1833</v>
+      </c>
+      <c r="D7">
+        <v>0.333401</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <f>C7/D7</f>
+        <v>5497.8839295622984</v>
+      </c>
+      <c r="J7" s="5">
+        <f>1000/I7</f>
+        <v>0.18188816148390619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>298</v>
+      </c>
+      <c r="C8" s="3">
+        <v>22104</v>
+      </c>
+      <c r="D8">
+        <v>5.0891400000000004</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <f>C8/D8</f>
+        <v>4343.366462702932</v>
+      </c>
+      <c r="J8" s="5">
+        <f>1000/I8</f>
+        <v>0.23023615635179154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1581</v>
+      </c>
+      <c r="C9" s="3">
+        <v>359859</v>
+      </c>
+      <c r="D9">
+        <v>127.70699999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>130</v>
+      </c>
+      <c r="I9" s="3">
+        <f>C9/D9</f>
+        <v>2817.8486692193851</v>
+      </c>
+      <c r="J9" s="5">
+        <f>1000/I9</f>
+        <v>0.35488066159245701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1.052E-3</v>
-      </c>
-      <c r="K6">
-        <f>E6/F6</f>
-        <v>7604.5627376425855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>152</v>
-      </c>
-      <c r="F7">
-        <v>9.1339000000000004E-2</v>
-      </c>
-      <c r="K7">
-        <f>E7/F7</f>
-        <v>1664.1303276803994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>746</v>
-      </c>
-      <c r="C8">
-        <v>746</v>
-      </c>
-      <c r="E8">
-        <v>10944</v>
-      </c>
-      <c r="F8">
-        <v>13.968</v>
-      </c>
-      <c r="G8">
-        <v>14</v>
-      </c>
-      <c r="K8">
-        <f>E8/F8</f>
-        <v>783.5051546391752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C10" s="3">
+        <v>7691008</v>
+      </c>
+      <c r="I10" s="3" t="e">
+        <f>C10/D10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="5" t="e">
+        <f>1000/I10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>746</v>
-      </c>
-      <c r="C13">
-        <v>283</v>
-      </c>
-      <c r="D13">
-        <v>1411</v>
-      </c>
-      <c r="E13">
-        <v>10944</v>
-      </c>
-      <c r="F13">
-        <v>2.423</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="K13">
-        <f>E13/F13</f>
-        <v>4516.7148163433758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>567207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>71</v>
-      </c>
-      <c r="E19">
-        <v>624</v>
-      </c>
-      <c r="F19">
-        <v>1.52698</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>72</v>
-      </c>
-      <c r="C24">
-        <v>71</v>
-      </c>
-      <c r="D24">
-        <v>109</v>
-      </c>
-      <c r="E24">
-        <v>624</v>
-      </c>
-      <c r="F24">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="K24">
-        <f>E24/F24</f>
-        <v>1124.3243243243242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>7</v>
-      </c>
-      <c r="B25">
-        <v>12151</v>
-      </c>
-      <c r="C25">
-        <v>12147</v>
-      </c>
-      <c r="D25">
-        <v>23746</v>
-      </c>
-      <c r="E25">
-        <v>233808</v>
-      </c>
-      <c r="F25">
-        <v>201.76</v>
-      </c>
-      <c r="G25">
-        <v>202</v>
-      </c>
-      <c r="H25">
-        <v>66.697999999999993</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>8</v>
-      </c>
-      <c r="B26">
-        <v>53146457</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/perf.xlsx
+++ b/perf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Research\project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C78B64-B699-4D64-B09D-636FA67807AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279D06F5-43E1-43B8-AEA7-106D2EC069F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="1870" windowWidth="24050" windowHeight="15370" activeTab="4" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
+    <workbookView xWindow="11750" yWindow="1320" windowWidth="20300" windowHeight="11980" firstSheet="2" activeTab="6" xr2:uid="{71B9B3C5-B210-445B-8D29-E805313DDE71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="quasigroups" sheetId="2" r:id="rId3"/>
     <sheet name="iploops" sheetId="5" r:id="rId4"/>
     <sheet name="quandles" sheetId="4" r:id="rId5"/>
+    <sheet name="inv_quandles" sheetId="6" r:id="rId6"/>
+    <sheet name="misc" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="33">
   <si>
     <t>Semigroups</t>
   </si>
@@ -133,6 +135,12 @@
   </si>
   <si>
     <t>time per model (ms)</t>
+  </si>
+  <si>
+    <t>mlex wall clock time</t>
+  </si>
+  <si>
+    <t>Hilbert algebras</t>
   </si>
 </sst>
 </file>
@@ -1473,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1C48C7-82EF-4B8E-B79C-E1931327BF0A}">
   <dimension ref="A4:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1624,16 +1632,25 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="3">
+        <v>11079</v>
+      </c>
       <c r="C10" s="3">
         <v>7691008</v>
       </c>
-      <c r="I10" s="3" t="e">
+      <c r="D10">
+        <v>4038.41</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4106</v>
+      </c>
+      <c r="I10" s="3">
         <f>C10/D10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10" s="5" t="e">
+        <v>1904.4643807835262</v>
+      </c>
+      <c r="J10" s="5">
         <f>1000/I10</f>
-        <v>#DIV/0!</v>
+        <v>0.52508201785773723</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1654,6 +1671,241 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9446A6-574A-4A78-94D1-145A9003B638}">
+  <dimension ref="A4:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="8.7265625" style="3"/>
+    <col min="3" max="3" width="10.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="3"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="9" max="9" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>142</v>
+      </c>
+      <c r="C7" s="3">
+        <v>11576</v>
+      </c>
+      <c r="D7">
+        <v>1.5773999999999999</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3.7989999999999999</v>
+      </c>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <f>C7/D7</f>
+        <v>7338.6585520476738</v>
+      </c>
+      <c r="J7">
+        <f>1000/I7</f>
+        <v>0.13626468555632343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>665</v>
+      </c>
+      <c r="C8" s="3">
+        <v>180204</v>
+      </c>
+      <c r="D8">
+        <v>36.348700000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>37</v>
+      </c>
+      <c r="F8">
+        <v>86.653999999999996</v>
+      </c>
+      <c r="I8" s="3">
+        <f>C8/D8</f>
+        <v>4957.6463532395928</v>
+      </c>
+      <c r="J8">
+        <f>1000/I8</f>
+        <v>0.20170861912055227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4288</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3763641</v>
+      </c>
+      <c r="D9">
+        <v>1128.6199999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1140</v>
+      </c>
+      <c r="F9">
+        <v>2789.3510000000001</v>
+      </c>
+      <c r="I9" s="3">
+        <f>C9/D9</f>
+        <v>3334.7282522018045</v>
+      </c>
+      <c r="J9">
+        <f>1000/I9</f>
+        <v>0.29987450981642505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F3D04F-5E53-4765-BDB1-00D1ED558300}">
+  <dimension ref="A3:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>550</v>
+      </c>
+      <c r="C5">
+        <v>202512</v>
+      </c>
+      <c r="D5">
+        <v>12.489699999999999</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>65.573999999999998</v>
+      </c>
+      <c r="I5">
+        <f>C5/D5</f>
+        <v>16214.320600174546</v>
+      </c>
+      <c r="J5">
+        <f>1000/I5</f>
+        <v>6.1673876115983246E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
